--- a/data/Cantaloupe_parametersbaseline.xlsx
+++ b/data/Cantaloupe_parametersbaseline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldhealthorg-my.sharepoint.com/personal/deju_who_int/Documents/Documents/JEMRA/Listeria 2023/Rversion 0110/Shiny_qraLm/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="53" documentId="8_{FB8BDFE2-5153-4BA0-BF64-B22973D78C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B9F3E078-FA0E-49D5-85F3-C44241BE6DD2}"/>
+  <xr:revisionPtr revIDLastSave="57" documentId="8_{FB8BDFE2-5153-4BA0-BF64-B22973D78C31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{907B902D-8315-421F-B3FD-6AF38A6C8316}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{28B2F49F-0539-443C-AC7F-5DC92ADDEF15}"/>
   </bookViews>
@@ -542,24 +542,15 @@
     <t>max temperature of storage at home</t>
   </si>
   <si>
-    <t>t_min_home=3</t>
-  </si>
-  <si>
     <t>min duration of storage at home</t>
   </si>
   <si>
-    <t>t_mode_home=6</t>
-  </si>
-  <si>
     <t>mode duration of storage at home</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>t_max_home=48</t>
-  </si>
-  <si>
     <t>max duration of storage at home</t>
   </si>
   <si>
@@ -672,6 +663,15 @@
   </si>
   <si>
     <t>cIrrigLogMax</t>
+  </si>
+  <si>
+    <t>t_min_home</t>
+  </si>
+  <si>
+    <t>t_mode_home</t>
+  </si>
+  <si>
+    <t>t_max_home</t>
   </si>
 </sst>
 </file>
@@ -1157,14 +1157,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACB9D3E7-DF01-46C9-9F23-AA0CE3FC4EBD}">
   <dimension ref="A1:ALB116"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="K79" sqref="K79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.88671875" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" customWidth="1"/>
     <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
@@ -1172,7 +1172,7 @@
   <sheetData>
     <row r="1" spans="1:990" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>85</v>
@@ -4194,7 +4194,7 @@
         <v>33</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="15">
@@ -5193,7 +5193,7 @@
         <v>34</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="16" t="s">
@@ -6192,7 +6192,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="16" t="s">
@@ -7191,7 +7191,7 @@
         <v>37</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="16" t="s">
@@ -8190,7 +8190,7 @@
         <v>39</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="16" t="s">
@@ -9189,7 +9189,7 @@
         <v>40</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D10" s="13" t="s">
         <v>41</v>
@@ -10190,7 +10190,7 @@
         <v>42</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D11" s="13" t="s">
         <v>41</v>
@@ -11191,7 +11191,7 @@
         <v>43</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D12" s="13" t="s">
         <v>41</v>
@@ -12192,7 +12192,7 @@
         <v>44</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>8</v>
@@ -13193,7 +13193,7 @@
         <v>45</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>8</v>
@@ -15195,7 +15195,7 @@
         <v>49</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="16" t="s">
@@ -15211,7 +15211,7 @@
         <v>50</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="16">
@@ -15240,10 +15240,10 @@
         <v>32</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>53</v>
@@ -15258,10 +15258,10 @@
         <v>32</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>53</v>
@@ -15297,7 +15297,7 @@
         <v>57</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="14">
@@ -15313,7 +15313,7 @@
         <v>58</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="16">
@@ -15377,7 +15377,7 @@
         <v>64</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>29</v>
@@ -15605,7 +15605,7 @@
         <v>93</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D40" s="13" t="s">
         <v>14</v>
@@ -15623,7 +15623,7 @@
         <v>94</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D41" s="13" t="s">
         <v>14</v>
@@ -15641,7 +15641,7 @@
         <v>95</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D42" s="13" t="s">
         <v>14</v>
@@ -15685,7 +15685,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B45" s="12" t="s">
         <v>100</v>
@@ -15703,7 +15703,7 @@
     </row>
     <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>103</v>
@@ -15721,7 +15721,7 @@
     </row>
     <row r="47" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>105</v>
@@ -15737,7 +15737,7 @@
     </row>
     <row r="48" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B48" s="12" t="s">
         <v>107</v>
@@ -15753,7 +15753,7 @@
     </row>
     <row r="49" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B49" s="12" t="s">
         <v>109</v>
@@ -15769,13 +15769,13 @@
     </row>
     <row r="50" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>111</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="16">
@@ -15785,13 +15785,13 @@
     </row>
     <row r="51" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B51" s="12" t="s">
         <v>112</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="16">
@@ -15801,13 +15801,13 @@
     </row>
     <row r="52" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>113</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D52" s="13" t="s">
         <v>29</v>
@@ -15819,7 +15819,7 @@
     </row>
     <row r="53" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B53" s="12" t="s">
         <v>114</v>
@@ -15835,7 +15835,7 @@
     </row>
     <row r="54" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B54" s="12" t="s">
         <v>6</v>
@@ -15853,7 +15853,7 @@
     </row>
     <row r="55" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B55" s="12" t="s">
         <v>117</v>
@@ -15869,7 +15869,7 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B56" s="12" t="s">
         <v>16</v>
@@ -15887,7 +15887,7 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>120</v>
@@ -15901,7 +15901,7 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>121</v>
@@ -15915,13 +15915,13 @@
     </row>
     <row r="59" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D59" s="13" t="s">
         <v>20</v>
@@ -15933,13 +15933,13 @@
     </row>
     <row r="60" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>122</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>20</v>
@@ -15951,13 +15951,13 @@
     </row>
     <row r="61" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>18</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D61" s="13" t="s">
         <v>10</v>
@@ -15969,7 +15969,7 @@
     </row>
     <row r="62" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B62" s="12" t="s">
         <v>123</v>
@@ -15987,7 +15987,7 @@
     </row>
     <row r="63" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B63" s="12" t="s">
         <v>126</v>
@@ -16005,7 +16005,7 @@
     </row>
     <row r="64" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B64" s="12" t="s">
         <v>128</v>
@@ -16023,7 +16023,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B65" s="12" t="s">
         <v>130</v>
@@ -16041,7 +16041,7 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B66" s="12" t="s">
         <v>133</v>
@@ -16059,7 +16059,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>135</v>
@@ -16077,7 +16077,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>138</v>
@@ -16095,7 +16095,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B69" s="12" t="s">
         <v>140</v>
@@ -16113,7 +16113,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>142</v>
@@ -16131,7 +16131,7 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>144</v>
@@ -16149,7 +16149,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>146</v>
@@ -16167,7 +16167,7 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>148</v>
@@ -16185,7 +16185,7 @@
     </row>
     <row r="74" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B74" s="12" t="s">
         <v>150</v>
@@ -16203,7 +16203,7 @@
     </row>
     <row r="75" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>152</v>
@@ -16221,7 +16221,7 @@
     </row>
     <row r="76" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>155</v>
@@ -16239,7 +16239,7 @@
     </row>
     <row r="77" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B77" s="12" t="s">
         <v>158</v>
@@ -16257,7 +16257,7 @@
     </row>
     <row r="78" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B78" s="12" t="s">
         <v>160</v>
@@ -16275,7 +16275,7 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>162</v>
@@ -16293,7 +16293,7 @@
     </row>
     <row r="80" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>164</v>
@@ -16311,7 +16311,7 @@
     </row>
     <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>166</v>
@@ -16329,13 +16329,13 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B82" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C82" s="13" t="s">
         <v>168</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>169</v>
       </c>
       <c r="D82" s="13" t="s">
         <v>15</v>
@@ -16347,37 +16347,37 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="C83" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D83" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E83" s="17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F83" s="12"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>173</v>
+        <v>211</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D84" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E84" s="17" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F84" s="12"/>
     </row>
@@ -16389,7 +16389,7 @@
         <v>23</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D85" s="13"/>
       <c r="E85" s="18" t="s">
@@ -16647,6 +16647,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="3ea6f4ca-5450-4209-b98f-b4f8505d1bf5" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e00e3462-dd11-41fe-aef0-5d94e8083054">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D7619FD2047C1B4D9CB14364C84562C7" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="816471c612e7ba7123fe7a2b321f69cf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e00e3462-dd11-41fe-aef0-5d94e8083054" xmlns:ns3="3ea6f4ca-5450-4209-b98f-b4f8505d1bf5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f8b1b3c05c7c6a86f4307bbadaa31565" ns2:_="" ns3:_="">
     <xsd:import namespace="e00e3462-dd11-41fe-aef0-5d94e8083054"/>
@@ -16895,17 +16906,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="3ea6f4ca-5450-4209-b98f-b4f8505d1bf5" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="e00e3462-dd11-41fe-aef0-5d94e8083054">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CBFBF9D-2595-46A9-BDC0-DB895C4D8825}">
   <ds:schemaRefs>
@@ -16915,6 +16915,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5756C24F-32FF-4814-BEE5-536EDDF0F70D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3ea6f4ca-5450-4209-b98f-b4f8505d1bf5"/>
+    <ds:schemaRef ds:uri="e00e3462-dd11-41fe-aef0-5d94e8083054"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4357EF2-95DD-487F-B351-83522D952547}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16931,15 +16942,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5756C24F-32FF-4814-BEE5-536EDDF0F70D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="3ea6f4ca-5450-4209-b98f-b4f8505d1bf5"/>
-    <ds:schemaRef ds:uri="e00e3462-dd11-41fe-aef0-5d94e8083054"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>